--- a/src/.vuepress/public/assets/numDEs/status/homework.xlsx
+++ b/src/.vuepress/public/assets/numDEs/status/homework.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="524">
   <si>
     <t>序号</t>
   </si>
@@ -1314,12 +1314,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>Ｏ</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>第15周</t>
   </si>
   <si>
@@ -1480,9 +1474,6 @@
   </si>
   <si>
     <t>93%</t>
-  </si>
-  <si>
-    <t>82%</t>
   </si>
   <si>
     <t>87%</t>
@@ -1727,19 +1718,19 @@
         <v>412</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U1" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="W1" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>455</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="2">
@@ -1801,13 +1792,13 @@
         <v>413</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3">
@@ -1869,13 +1860,13 @@
         <v>413</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
@@ -1937,13 +1928,13 @@
         <v>413</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U4" s="0"/>
       <c r="V4" s="0"/>
       <c r="W4" s="0"/>
       <c r="X4" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5">
@@ -2005,13 +1996,13 @@
         <v>413</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6">
@@ -2073,13 +2064,13 @@
         <v>413</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U6" s="0"/>
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
@@ -2141,13 +2132,13 @@
         <v>413</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U7" s="0"/>
       <c r="V7" s="0"/>
       <c r="W7" s="0"/>
       <c r="X7" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8">
@@ -2209,13 +2200,13 @@
         <v>413</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U8" s="0"/>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
       <c r="X8" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9">
@@ -2277,13 +2268,13 @@
         <v>413</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U9" s="0"/>
       <c r="V9" s="0"/>
       <c r="W9" s="0"/>
       <c r="X9" s="0" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10">
@@ -2345,13 +2336,13 @@
         <v>413</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
       <c r="X10" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11">
@@ -2413,13 +2404,13 @@
         <v>413</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12">
@@ -2481,13 +2472,13 @@
         <v>413</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
       <c r="X12" s="0" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13">
@@ -2549,13 +2540,13 @@
         <v>413</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
       <c r="X13" s="0" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14">
@@ -2617,13 +2608,13 @@
         <v>413</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0"/>
       <c r="W14" s="0"/>
       <c r="X14" s="0" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15">
@@ -2685,13 +2676,13 @@
         <v>413</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
       <c r="X15" s="0" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16">
@@ -2753,13 +2744,13 @@
         <v>413</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
       <c r="X16" s="0" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17">
@@ -2821,13 +2812,13 @@
         <v>413</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
       <c r="X17" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18">
@@ -2889,13 +2880,13 @@
         <v>413</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19">
@@ -2957,13 +2948,13 @@
         <v>413</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20">
@@ -3025,13 +3016,13 @@
         <v>413</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
       <c r="X20" s="0" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21">
@@ -3093,13 +3084,13 @@
         <v>414</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U21" s="0"/>
       <c r="V21" s="0"/>
       <c r="W21" s="0"/>
       <c r="X21" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22">
@@ -3161,13 +3152,13 @@
         <v>415</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U22" s="0"/>
       <c r="V22" s="0"/>
       <c r="W22" s="0"/>
       <c r="X22" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23">
@@ -3229,13 +3220,13 @@
         <v>416</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U23" s="0"/>
       <c r="V23" s="0"/>
       <c r="W23" s="0"/>
       <c r="X23" s="0" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24">
@@ -3297,13 +3288,13 @@
         <v>417</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U24" s="0"/>
       <c r="V24" s="0"/>
       <c r="W24" s="0"/>
       <c r="X24" s="0" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25">
@@ -3365,13 +3356,13 @@
         <v>417</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U25" s="0"/>
       <c r="V25" s="0"/>
       <c r="W25" s="0"/>
       <c r="X25" s="0" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26">
@@ -3433,13 +3424,13 @@
         <v>417</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U26" s="0"/>
       <c r="V26" s="0"/>
       <c r="W26" s="0"/>
       <c r="X26" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27">
@@ -3501,13 +3492,13 @@
         <v>418</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U27" s="0"/>
       <c r="V27" s="0"/>
       <c r="W27" s="0"/>
       <c r="X27" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28">
@@ -3569,13 +3560,13 @@
         <v>418</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0"/>
       <c r="W28" s="0"/>
       <c r="X28" s="0" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29">
@@ -3637,13 +3628,13 @@
         <v>419</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U29" s="0"/>
       <c r="V29" s="0"/>
       <c r="W29" s="0"/>
       <c r="X29" s="0" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30">
@@ -3705,13 +3696,13 @@
         <v>420</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0"/>
       <c r="W30" s="0"/>
       <c r="X30" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31">
@@ -3773,13 +3764,13 @@
         <v>421</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U31" s="0"/>
       <c r="V31" s="0"/>
       <c r="W31" s="0"/>
       <c r="X31" s="0" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32">
@@ -3841,13 +3832,13 @@
         <v>422</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U32" s="0"/>
       <c r="V32" s="0"/>
       <c r="W32" s="0"/>
       <c r="X32" s="0" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33">
@@ -3906,16 +3897,16 @@
         <v>403</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U33" s="0"/>
       <c r="V33" s="0"/>
       <c r="W33" s="0"/>
       <c r="X33" s="0" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34">
@@ -3974,16 +3965,16 @@
         <v>403</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U34" s="0"/>
       <c r="V34" s="0"/>
       <c r="W34" s="0"/>
       <c r="X34" s="0" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35">
@@ -4042,16 +4033,16 @@
         <v>403</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U35" s="0"/>
       <c r="V35" s="0"/>
       <c r="W35" s="0"/>
       <c r="X35" s="0" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36">
@@ -4110,16 +4101,16 @@
         <v>403</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U36" s="0"/>
       <c r="V36" s="0"/>
       <c r="W36" s="0"/>
       <c r="X36" s="0" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37">
@@ -4178,16 +4169,16 @@
         <v>403</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U37" s="0"/>
       <c r="V37" s="0"/>
       <c r="W37" s="0"/>
       <c r="X37" s="0" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38">
@@ -4246,16 +4237,16 @@
         <v>403</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U38" s="0"/>
       <c r="V38" s="0"/>
       <c r="W38" s="0"/>
       <c r="X38" s="0" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39">
@@ -4314,16 +4305,16 @@
         <v>403</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U39" s="0"/>
       <c r="V39" s="0"/>
       <c r="W39" s="0"/>
       <c r="X39" s="0" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40">
@@ -4382,16 +4373,16 @@
         <v>403</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U40" s="0"/>
       <c r="V40" s="0"/>
       <c r="W40" s="0"/>
       <c r="X40" s="0" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41">
@@ -4450,16 +4441,16 @@
         <v>403</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U41" s="0"/>
       <c r="V41" s="0"/>
       <c r="W41" s="0"/>
       <c r="X41" s="0" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42">
@@ -4518,16 +4509,16 @@
         <v>403</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U42" s="0"/>
       <c r="V42" s="0"/>
       <c r="W42" s="0"/>
       <c r="X42" s="0" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43">
@@ -4586,16 +4577,16 @@
         <v>403</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U43" s="0"/>
       <c r="V43" s="0"/>
       <c r="W43" s="0"/>
       <c r="X43" s="0" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44">
@@ -4654,16 +4645,16 @@
         <v>403</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U44" s="0"/>
       <c r="V44" s="0"/>
       <c r="W44" s="0"/>
       <c r="X44" s="0" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45">
@@ -4722,16 +4713,16 @@
         <v>403</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U45" s="0"/>
       <c r="V45" s="0"/>
       <c r="W45" s="0"/>
       <c r="X45" s="0" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46">
@@ -4790,16 +4781,16 @@
         <v>403</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U46" s="0"/>
       <c r="V46" s="0"/>
       <c r="W46" s="0"/>
       <c r="X46" s="0" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47">
@@ -4858,16 +4849,16 @@
         <v>403</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U47" s="0"/>
       <c r="V47" s="0"/>
       <c r="W47" s="0"/>
       <c r="X47" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48">
@@ -4926,16 +4917,16 @@
         <v>403</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U48" s="0"/>
       <c r="V48" s="0"/>
       <c r="W48" s="0"/>
       <c r="X48" s="0" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49">
@@ -4994,16 +4985,16 @@
         <v>403</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U49" s="0"/>
       <c r="V49" s="0"/>
       <c r="W49" s="0"/>
       <c r="X49" s="0" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50">
@@ -5062,16 +5053,16 @@
         <v>403</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U50" s="0"/>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
       <c r="X50" s="0" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="51">
@@ -5130,16 +5121,16 @@
         <v>403</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U51" s="0"/>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
       <c r="X51" s="0" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52">
@@ -5198,16 +5189,16 @@
         <v>403</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T52" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U52" s="0"/>
       <c r="V52" s="0"/>
       <c r="W52" s="0"/>
       <c r="X52" s="0" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53">
@@ -5266,16 +5257,16 @@
         <v>403</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T53" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U53" s="0"/>
       <c r="V53" s="0"/>
       <c r="W53" s="0"/>
       <c r="X53" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54">
@@ -5334,16 +5325,16 @@
         <v>404</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T54" s="0" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
       <c r="X54" s="0" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55">
@@ -5402,16 +5393,16 @@
         <v>405</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0"/>
       <c r="W55" s="0"/>
       <c r="X55" s="0" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56">
@@ -5470,16 +5461,16 @@
         <v>406</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="U56" s="0"/>
       <c r="V56" s="0"/>
       <c r="W56" s="0"/>
       <c r="X56" s="0" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57">
@@ -5538,16 +5529,16 @@
         <v>407</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
       <c r="W57" s="0"/>
       <c r="X57" s="0" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58">
@@ -5606,16 +5597,16 @@
         <v>408</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="T58" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U58" s="0"/>
       <c r="V58" s="0"/>
       <c r="W58" s="0"/>
       <c r="X58" s="0" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59">
@@ -5674,16 +5665,16 @@
         <v>409</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0"/>
       <c r="W59" s="0"/>
       <c r="X59" s="0" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60">
@@ -5742,16 +5733,16 @@
         <v>409</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0"/>
       <c r="W60" s="0"/>
       <c r="X60" s="0" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61">
@@ -5810,16 +5801,16 @@
         <v>409</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U61" s="0"/>
       <c r="V61" s="0"/>
       <c r="W61" s="0"/>
       <c r="X61" s="0" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62">
@@ -5878,16 +5869,16 @@
         <v>409</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
       <c r="X62" s="0" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63">
@@ -5946,16 +5937,16 @@
         <v>410</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U63" s="0"/>
       <c r="V63" s="0"/>
       <c r="W63" s="0"/>
       <c r="X63" s="0" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64">
@@ -6014,16 +6005,16 @@
         <v>411</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0"/>
       <c r="W64" s="0"/>
       <c r="X64" s="0" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65">
@@ -6082,16 +6073,16 @@
         <v>411</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U65" s="0"/>
       <c r="V65" s="0"/>
       <c r="W65" s="0"/>
       <c r="X65" s="0" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66">
@@ -6150,16 +6141,16 @@
         <v>411</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U66" s="0"/>
       <c r="V66" s="0"/>
       <c r="W66" s="0"/>
       <c r="X66" s="0" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67">
@@ -6218,16 +6209,16 @@
         <v>411</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T67" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U67" s="0"/>
       <c r="V67" s="0"/>
       <c r="W67" s="0"/>
       <c r="X67" s="0" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68">
@@ -6286,16 +6277,16 @@
         <v>411</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U68" s="0"/>
       <c r="V68" s="0"/>
       <c r="W68" s="0"/>
       <c r="X68" s="0" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69">
@@ -6354,16 +6345,16 @@
         <v>411</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U69" s="0"/>
       <c r="V69" s="0"/>
       <c r="W69" s="0"/>
       <c r="X69" s="0" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70">
@@ -6422,16 +6413,16 @@
         <v>411</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U70" s="0"/>
       <c r="V70" s="0"/>
       <c r="W70" s="0"/>
       <c r="X70" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71">
@@ -6490,16 +6481,16 @@
         <v>411</v>
       </c>
       <c r="S71" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T71" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U71" s="0"/>
       <c r="V71" s="0"/>
       <c r="W71" s="0"/>
       <c r="X71" s="0" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/src/.vuepress/public/assets/numDEs/status/homework.xlsx
+++ b/src/.vuepress/public/assets/numDEs/status/homework.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="520">
   <si>
     <t>序号</t>
   </si>
@@ -1308,12 +1308,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>Ｏ</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>第15周</t>
   </si>
   <si>
@@ -1365,12 +1359,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>Ｏ</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>第16周</t>
   </si>
   <si>
@@ -1545,7 +1533,7 @@
     <t>73%</t>
   </si>
   <si>
-    <t>91%</t>
+    <t>96%</t>
   </si>
   <si>
     <t>58%</t>
@@ -1563,7 +1551,7 @@
     <t>89%</t>
   </si>
   <si>
-    <t>64%</t>
+    <t>69%</t>
   </si>
   <si>
     <t>93%</t>
@@ -1718,19 +1706,19 @@
         <v>412</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
@@ -1792,13 +1780,13 @@
         <v>413</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3">
@@ -1860,13 +1848,13 @@
         <v>413</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4">
@@ -1928,13 +1916,13 @@
         <v>413</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U4" s="0"/>
       <c r="V4" s="0"/>
       <c r="W4" s="0"/>
       <c r="X4" s="0" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5">
@@ -1996,13 +1984,13 @@
         <v>413</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6">
@@ -2064,13 +2052,13 @@
         <v>413</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U6" s="0"/>
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7">
@@ -2132,13 +2120,13 @@
         <v>413</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U7" s="0"/>
       <c r="V7" s="0"/>
       <c r="W7" s="0"/>
       <c r="X7" s="0" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8">
@@ -2200,13 +2188,13 @@
         <v>413</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U8" s="0"/>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
       <c r="X8" s="0" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9">
@@ -2268,13 +2256,13 @@
         <v>413</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U9" s="0"/>
       <c r="V9" s="0"/>
       <c r="W9" s="0"/>
       <c r="X9" s="0" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10">
@@ -2336,13 +2324,13 @@
         <v>413</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
       <c r="X10" s="0" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11">
@@ -2404,13 +2392,13 @@
         <v>413</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12">
@@ -2472,13 +2460,13 @@
         <v>413</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
       <c r="X12" s="0" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13">
@@ -2540,13 +2528,13 @@
         <v>413</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
       <c r="X13" s="0" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
@@ -2608,13 +2596,13 @@
         <v>413</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0"/>
       <c r="W14" s="0"/>
       <c r="X14" s="0" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15">
@@ -2676,13 +2664,13 @@
         <v>413</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
       <c r="X15" s="0" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16">
@@ -2744,13 +2732,13 @@
         <v>413</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
       <c r="X16" s="0" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17">
@@ -2812,13 +2800,13 @@
         <v>413</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
       <c r="X17" s="0" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18">
@@ -2880,13 +2868,13 @@
         <v>413</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19">
@@ -2948,13 +2936,13 @@
         <v>413</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20">
@@ -3016,13 +3004,13 @@
         <v>413</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
       <c r="X20" s="0" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21">
@@ -3084,13 +3072,13 @@
         <v>414</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U21" s="0"/>
       <c r="V21" s="0"/>
       <c r="W21" s="0"/>
       <c r="X21" s="0" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22">
@@ -3152,13 +3140,13 @@
         <v>415</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U22" s="0"/>
       <c r="V22" s="0"/>
       <c r="W22" s="0"/>
       <c r="X22" s="0" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23">
@@ -3220,13 +3208,13 @@
         <v>416</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U23" s="0"/>
       <c r="V23" s="0"/>
       <c r="W23" s="0"/>
       <c r="X23" s="0" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24">
@@ -3288,13 +3276,13 @@
         <v>417</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U24" s="0"/>
       <c r="V24" s="0"/>
       <c r="W24" s="0"/>
       <c r="X24" s="0" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25">
@@ -3356,13 +3344,13 @@
         <v>417</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U25" s="0"/>
       <c r="V25" s="0"/>
       <c r="W25" s="0"/>
       <c r="X25" s="0" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26">
@@ -3424,13 +3412,13 @@
         <v>417</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U26" s="0"/>
       <c r="V26" s="0"/>
       <c r="W26" s="0"/>
       <c r="X26" s="0" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27">
@@ -3492,13 +3480,13 @@
         <v>418</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U27" s="0"/>
       <c r="V27" s="0"/>
       <c r="W27" s="0"/>
       <c r="X27" s="0" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28">
@@ -3560,13 +3548,13 @@
         <v>418</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0"/>
       <c r="W28" s="0"/>
       <c r="X28" s="0" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29">
@@ -3628,13 +3616,13 @@
         <v>419</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U29" s="0"/>
       <c r="V29" s="0"/>
       <c r="W29" s="0"/>
       <c r="X29" s="0" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30">
@@ -3696,13 +3684,13 @@
         <v>420</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0"/>
       <c r="W30" s="0"/>
       <c r="X30" s="0" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31">
@@ -3764,13 +3752,13 @@
         <v>421</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U31" s="0"/>
       <c r="V31" s="0"/>
       <c r="W31" s="0"/>
       <c r="X31" s="0" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32">
@@ -3832,13 +3820,13 @@
         <v>422</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U32" s="0"/>
       <c r="V32" s="0"/>
       <c r="W32" s="0"/>
       <c r="X32" s="0" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33">
@@ -3900,13 +3888,13 @@
         <v>422</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U33" s="0"/>
       <c r="V33" s="0"/>
       <c r="W33" s="0"/>
       <c r="X33" s="0" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34">
@@ -3968,13 +3956,13 @@
         <v>422</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U34" s="0"/>
       <c r="V34" s="0"/>
       <c r="W34" s="0"/>
       <c r="X34" s="0" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35">
@@ -4036,13 +4024,13 @@
         <v>422</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U35" s="0"/>
       <c r="V35" s="0"/>
       <c r="W35" s="0"/>
       <c r="X35" s="0" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36">
@@ -4104,13 +4092,13 @@
         <v>423</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U36" s="0"/>
       <c r="V36" s="0"/>
       <c r="W36" s="0"/>
       <c r="X36" s="0" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37">
@@ -4172,13 +4160,13 @@
         <v>423</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U37" s="0"/>
       <c r="V37" s="0"/>
       <c r="W37" s="0"/>
       <c r="X37" s="0" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38">
@@ -4240,13 +4228,13 @@
         <v>423</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U38" s="0"/>
       <c r="V38" s="0"/>
       <c r="W38" s="0"/>
       <c r="X38" s="0" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39">
@@ -4308,13 +4296,13 @@
         <v>424</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U39" s="0"/>
       <c r="V39" s="0"/>
       <c r="W39" s="0"/>
       <c r="X39" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40">
@@ -4376,13 +4364,13 @@
         <v>424</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U40" s="0"/>
       <c r="V40" s="0"/>
       <c r="W40" s="0"/>
       <c r="X40" s="0" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41">
@@ -4444,13 +4432,13 @@
         <v>424</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U41" s="0"/>
       <c r="V41" s="0"/>
       <c r="W41" s="0"/>
       <c r="X41" s="0" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42">
@@ -4512,13 +4500,13 @@
         <v>424</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U42" s="0"/>
       <c r="V42" s="0"/>
       <c r="W42" s="0"/>
       <c r="X42" s="0" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43">
@@ -4580,13 +4568,13 @@
         <v>424</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U43" s="0"/>
       <c r="V43" s="0"/>
       <c r="W43" s="0"/>
       <c r="X43" s="0" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44">
@@ -4648,13 +4636,13 @@
         <v>424</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U44" s="0"/>
       <c r="V44" s="0"/>
       <c r="W44" s="0"/>
       <c r="X44" s="0" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45">
@@ -4716,13 +4704,13 @@
         <v>424</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U45" s="0"/>
       <c r="V45" s="0"/>
       <c r="W45" s="0"/>
       <c r="X45" s="0" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46">
@@ -4784,13 +4772,13 @@
         <v>424</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U46" s="0"/>
       <c r="V46" s="0"/>
       <c r="W46" s="0"/>
       <c r="X46" s="0" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47">
@@ -4852,13 +4840,13 @@
         <v>424</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U47" s="0"/>
       <c r="V47" s="0"/>
       <c r="W47" s="0"/>
       <c r="X47" s="0" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48">
@@ -4920,13 +4908,13 @@
         <v>424</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U48" s="0"/>
       <c r="V48" s="0"/>
       <c r="W48" s="0"/>
       <c r="X48" s="0" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49">
@@ -4988,13 +4976,13 @@
         <v>424</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U49" s="0"/>
       <c r="V49" s="0"/>
       <c r="W49" s="0"/>
       <c r="X49" s="0" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50">
@@ -5056,13 +5044,13 @@
         <v>425</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U50" s="0"/>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
       <c r="X50" s="0" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51">
@@ -5124,13 +5112,13 @@
         <v>426</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U51" s="0"/>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
       <c r="X51" s="0" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52">
@@ -5192,13 +5180,13 @@
         <v>426</v>
       </c>
       <c r="T52" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U52" s="0"/>
       <c r="V52" s="0"/>
       <c r="W52" s="0"/>
       <c r="X52" s="0" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53">
@@ -5260,13 +5248,13 @@
         <v>426</v>
       </c>
       <c r="T53" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U53" s="0"/>
       <c r="V53" s="0"/>
       <c r="W53" s="0"/>
       <c r="X53" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54">
@@ -5328,13 +5316,13 @@
         <v>426</v>
       </c>
       <c r="T54" s="0" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
       <c r="X54" s="0" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55">
@@ -5396,13 +5384,13 @@
         <v>426</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0"/>
       <c r="W55" s="0"/>
       <c r="X55" s="0" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56">
@@ -5464,13 +5452,13 @@
         <v>426</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U56" s="0"/>
       <c r="V56" s="0"/>
       <c r="W56" s="0"/>
       <c r="X56" s="0" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57">
@@ -5532,13 +5520,13 @@
         <v>426</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
       <c r="W57" s="0"/>
       <c r="X57" s="0" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58">
@@ -5600,13 +5588,13 @@
         <v>427</v>
       </c>
       <c r="T58" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U58" s="0"/>
       <c r="V58" s="0"/>
       <c r="W58" s="0"/>
       <c r="X58" s="0" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59">
@@ -5668,13 +5656,13 @@
         <v>428</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0"/>
       <c r="W59" s="0"/>
       <c r="X59" s="0" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60">
@@ -5736,13 +5724,13 @@
         <v>428</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0"/>
       <c r="W60" s="0"/>
       <c r="X60" s="0" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61">
@@ -5804,13 +5792,13 @@
         <v>428</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U61" s="0"/>
       <c r="V61" s="0"/>
       <c r="W61" s="0"/>
       <c r="X61" s="0" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62">
@@ -5872,13 +5860,13 @@
         <v>428</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
       <c r="X62" s="0" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63">
@@ -5937,16 +5925,16 @@
         <v>410</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U63" s="0"/>
       <c r="V63" s="0"/>
       <c r="W63" s="0"/>
       <c r="X63" s="0" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64">
@@ -6005,16 +5993,16 @@
         <v>411</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0"/>
       <c r="W64" s="0"/>
       <c r="X64" s="0" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65">
@@ -6073,16 +6061,16 @@
         <v>411</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U65" s="0"/>
       <c r="V65" s="0"/>
       <c r="W65" s="0"/>
       <c r="X65" s="0" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66">
@@ -6141,16 +6129,16 @@
         <v>411</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U66" s="0"/>
       <c r="V66" s="0"/>
       <c r="W66" s="0"/>
       <c r="X66" s="0" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67">
@@ -6209,16 +6197,16 @@
         <v>411</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T67" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U67" s="0"/>
       <c r="V67" s="0"/>
       <c r="W67" s="0"/>
       <c r="X67" s="0" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68">
@@ -6277,16 +6265,16 @@
         <v>411</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U68" s="0"/>
       <c r="V68" s="0"/>
       <c r="W68" s="0"/>
       <c r="X68" s="0" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69">
@@ -6345,16 +6333,16 @@
         <v>411</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U69" s="0"/>
       <c r="V69" s="0"/>
       <c r="W69" s="0"/>
       <c r="X69" s="0" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70">
@@ -6413,16 +6401,16 @@
         <v>411</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U70" s="0"/>
       <c r="V70" s="0"/>
       <c r="W70" s="0"/>
       <c r="X70" s="0" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71">
@@ -6481,16 +6469,16 @@
         <v>411</v>
       </c>
       <c r="S71" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T71" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U71" s="0"/>
       <c r="V71" s="0"/>
       <c r="W71" s="0"/>
       <c r="X71" s="0" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/src/.vuepress/public/assets/numDEs/status/homework.xlsx
+++ b/src/.vuepress/public/assets/numDEs/status/homework.xlsx
@@ -645,6 +645,12 @@
     <t>√</t>
   </si>
   <si>
+    <t>Ｏ</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>第4周</t>
   </si>
   <si>
@@ -894,12 +900,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>Ｏ</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>第9周</t>
   </si>
   <si>
@@ -1404,7 +1404,7 @@
     <t>37%</t>
   </si>
   <si>
-    <t>51%</t>
+    <t>69%</t>
   </si>
   <si>
     <t>44%</t>
@@ -1673,19 +1673,19 @@
         <v>193</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>295</v>
@@ -1747,19 +1747,19 @@
         <v>194</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>296</v>
@@ -1815,19 +1815,19 @@
         <v>195</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>296</v>
@@ -1883,19 +1883,19 @@
         <v>195</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>296</v>
@@ -1951,19 +1951,19 @@
         <v>196</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>296</v>
@@ -2019,19 +2019,19 @@
         <v>197</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>296</v>
@@ -2087,19 +2087,19 @@
         <v>197</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>297</v>
@@ -2155,19 +2155,19 @@
         <v>197</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>298</v>
@@ -2223,19 +2223,19 @@
         <v>197</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>298</v>
@@ -2291,19 +2291,19 @@
         <v>197</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>298</v>
@@ -2359,19 +2359,19 @@
         <v>197</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>298</v>
@@ -2427,19 +2427,19 @@
         <v>198</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>298</v>
@@ -2492,22 +2492,22 @@
         <v>184</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>299</v>
@@ -2516,10 +2516,10 @@
         <v>328</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>395</v>
@@ -2560,19 +2560,19 @@
         <v>185</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>282</v>
@@ -2628,19 +2628,19 @@
         <v>185</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>282</v>
@@ -2696,19 +2696,19 @@
         <v>186</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>282</v>
@@ -2764,19 +2764,19 @@
         <v>186</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>282</v>
@@ -2832,19 +2832,19 @@
         <v>187</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>283</v>
@@ -2900,19 +2900,19 @@
         <v>188</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>284</v>
@@ -2968,19 +2968,19 @@
         <v>189</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>285</v>
@@ -3036,19 +3036,19 @@
         <v>190</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>286</v>
@@ -3104,19 +3104,19 @@
         <v>190</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>286</v>
@@ -3172,19 +3172,19 @@
         <v>190</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>286</v>
@@ -3240,19 +3240,19 @@
         <v>190</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>286</v>
@@ -3308,19 +3308,19 @@
         <v>190</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>287</v>
@@ -3376,19 +3376,19 @@
         <v>190</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>287</v>
@@ -3444,19 +3444,19 @@
         <v>190</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>288</v>
@@ -3512,19 +3512,19 @@
         <v>190</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>288</v>
@@ -3580,19 +3580,19 @@
         <v>191</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>289</v>
@@ -3648,19 +3648,19 @@
         <v>192</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>290</v>
@@ -3716,19 +3716,19 @@
         <v>192</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>290</v>
@@ -3784,19 +3784,19 @@
         <v>192</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>290</v>
@@ -3852,19 +3852,19 @@
         <v>192</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>290</v>
@@ -3920,19 +3920,19 @@
         <v>192</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>290</v>
@@ -3988,19 +3988,19 @@
         <v>192</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>290</v>
@@ -4056,19 +4056,19 @@
         <v>192</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>290</v>
@@ -4124,19 +4124,19 @@
         <v>192</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>290</v>
@@ -4192,19 +4192,19 @@
         <v>192</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>290</v>
@@ -4260,19 +4260,19 @@
         <v>192</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>291</v>
@@ -4328,19 +4328,19 @@
         <v>192</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>292</v>
@@ -4396,19 +4396,19 @@
         <v>192</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M41" s="0" t="s">
         <v>292</v>
@@ -4464,19 +4464,19 @@
         <v>192</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M42" s="0" t="s">
         <v>292</v>
@@ -4532,19 +4532,19 @@
         <v>192</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M43" s="0" t="s">
         <v>292</v>
@@ -4600,19 +4600,19 @@
         <v>192</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>292</v>
@@ -4668,19 +4668,19 @@
         <v>192</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>292</v>
@@ -4736,19 +4736,19 @@
         <v>192</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M46" s="0" t="s">
         <v>292</v>
@@ -4804,19 +4804,19 @@
         <v>192</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M47" s="0" t="s">
         <v>292</v>
@@ -4872,19 +4872,19 @@
         <v>192</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>292</v>
@@ -4940,19 +4940,19 @@
         <v>192</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M49" s="0" t="s">
         <v>292</v>
@@ -5008,19 +5008,19 @@
         <v>192</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M50" s="0" t="s">
         <v>292</v>
@@ -5076,19 +5076,19 @@
         <v>192</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M51" s="0" t="s">
         <v>292</v>
@@ -5144,19 +5144,19 @@
         <v>192</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M52" s="0" t="s">
         <v>292</v>
@@ -5212,19 +5212,19 @@
         <v>192</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M53" s="0" t="s">
         <v>292</v>
@@ -5280,19 +5280,19 @@
         <v>192</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M54" s="0" t="s">
         <v>292</v>
@@ -5348,19 +5348,19 @@
         <v>192</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>292</v>
@@ -5416,19 +5416,19 @@
         <v>192</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>292</v>
@@ -5484,19 +5484,19 @@
         <v>192</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>292</v>
@@ -5552,19 +5552,19 @@
         <v>192</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M58" s="0" t="s">
         <v>293</v>
@@ -5620,19 +5620,19 @@
         <v>192</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M59" s="0" t="s">
         <v>294</v>
@@ -5688,19 +5688,19 @@
         <v>192</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M60" s="0" t="s">
         <v>294</v>
@@ -5756,19 +5756,19 @@
         <v>192</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M61" s="0" t="s">
         <v>294</v>
@@ -5824,19 +5824,19 @@
         <v>192</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M62" s="0" t="s">
         <v>294</v>
@@ -5892,19 +5892,19 @@
         <v>192</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>294</v>
@@ -5960,19 +5960,19 @@
         <v>192</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>294</v>
@@ -6028,19 +6028,19 @@
         <v>192</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M65" s="0" t="s">
         <v>294</v>
@@ -6096,19 +6096,19 @@
         <v>192</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M66" s="0" t="s">
         <v>294</v>
@@ -6164,19 +6164,19 @@
         <v>192</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>294</v>
@@ -6232,19 +6232,19 @@
         <v>192</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M68" s="0" t="s">
         <v>294</v>
@@ -6300,19 +6300,19 @@
         <v>192</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>294</v>
@@ -6368,19 +6368,19 @@
         <v>192</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>294</v>
@@ -6436,19 +6436,19 @@
         <v>192</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>294</v>

--- a/src/.vuepress/public/assets/numDEs/status/homework.xlsx
+++ b/src/.vuepress/public/assets/numDEs/status/homework.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="518">
   <si>
     <t>序号</t>
   </si>
@@ -645,12 +645,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>Ｏ</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>第4周</t>
   </si>
   <si>
@@ -1107,12 +1101,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>Ｏ</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>第12周</t>
   </si>
   <si>
@@ -1308,6 +1296,12 @@
     <t>√</t>
   </si>
   <si>
+    <t>Ｏ</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>第15周</t>
   </si>
   <si>
@@ -1401,7 +1395,7 @@
     <t>49%</t>
   </si>
   <si>
-    <t>37%</t>
+    <t>61%</t>
   </si>
   <si>
     <t>69%</t>
@@ -1673,52 +1667,52 @@
         <v>193</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U1" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="W1" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2">
@@ -1747,46 +1741,46 @@
         <v>194</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
@@ -1815,46 +1809,46 @@
         <v>195</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
@@ -1883,46 +1877,46 @@
         <v>195</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U4" s="0"/>
       <c r="V4" s="0"/>
       <c r="W4" s="0"/>
       <c r="X4" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5">
@@ -1951,46 +1945,46 @@
         <v>196</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
@@ -2019,46 +2013,46 @@
         <v>197</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U6" s="0"/>
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7">
@@ -2087,46 +2081,46 @@
         <v>197</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U7" s="0"/>
       <c r="V7" s="0"/>
       <c r="W7" s="0"/>
       <c r="X7" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8">
@@ -2155,46 +2149,46 @@
         <v>197</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U8" s="0"/>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
       <c r="X8" s="0" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9">
@@ -2223,46 +2217,46 @@
         <v>197</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U9" s="0"/>
       <c r="V9" s="0"/>
       <c r="W9" s="0"/>
       <c r="X9" s="0" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10">
@@ -2291,46 +2285,46 @@
         <v>197</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
       <c r="X10" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11">
@@ -2359,46 +2353,46 @@
         <v>197</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
@@ -2424,49 +2418,49 @@
         <v>184</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
       <c r="X12" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
@@ -2492,49 +2486,49 @@
         <v>184</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
       <c r="X13" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14">
@@ -2560,49 +2554,49 @@
         <v>185</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0"/>
       <c r="W14" s="0"/>
       <c r="X14" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15">
@@ -2628,49 +2622,49 @@
         <v>185</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
       <c r="X15" s="0" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16">
@@ -2696,49 +2690,49 @@
         <v>186</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
       <c r="X16" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17">
@@ -2764,49 +2758,49 @@
         <v>186</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
       <c r="X17" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18">
@@ -2832,49 +2826,49 @@
         <v>187</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19">
@@ -2900,49 +2894,49 @@
         <v>188</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20">
@@ -2968,49 +2962,49 @@
         <v>189</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
       <c r="X20" s="0" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21">
@@ -3036,49 +3030,49 @@
         <v>190</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U21" s="0"/>
       <c r="V21" s="0"/>
       <c r="W21" s="0"/>
       <c r="X21" s="0" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22">
@@ -3104,49 +3098,49 @@
         <v>190</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U22" s="0"/>
       <c r="V22" s="0"/>
       <c r="W22" s="0"/>
       <c r="X22" s="0" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23">
@@ -3172,49 +3166,49 @@
         <v>190</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U23" s="0"/>
       <c r="V23" s="0"/>
       <c r="W23" s="0"/>
       <c r="X23" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24">
@@ -3240,49 +3234,49 @@
         <v>190</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U24" s="0"/>
       <c r="V24" s="0"/>
       <c r="W24" s="0"/>
       <c r="X24" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25">
@@ -3308,49 +3302,49 @@
         <v>190</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U25" s="0"/>
       <c r="V25" s="0"/>
       <c r="W25" s="0"/>
       <c r="X25" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26">
@@ -3376,49 +3370,49 @@
         <v>190</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U26" s="0"/>
       <c r="V26" s="0"/>
       <c r="W26" s="0"/>
       <c r="X26" s="0" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27">
@@ -3444,49 +3438,49 @@
         <v>190</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U27" s="0"/>
       <c r="V27" s="0"/>
       <c r="W27" s="0"/>
       <c r="X27" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28">
@@ -3512,49 +3506,49 @@
         <v>190</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0"/>
       <c r="W28" s="0"/>
       <c r="X28" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29">
@@ -3580,49 +3574,49 @@
         <v>191</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U29" s="0"/>
       <c r="V29" s="0"/>
       <c r="W29" s="0"/>
       <c r="X29" s="0" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30">
@@ -3648,49 +3642,49 @@
         <v>192</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0"/>
       <c r="W30" s="0"/>
       <c r="X30" s="0" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31">
@@ -3716,49 +3710,49 @@
         <v>192</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U31" s="0"/>
       <c r="V31" s="0"/>
       <c r="W31" s="0"/>
       <c r="X31" s="0" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32">
@@ -3784,49 +3778,49 @@
         <v>192</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U32" s="0"/>
       <c r="V32" s="0"/>
       <c r="W32" s="0"/>
       <c r="X32" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33">
@@ -3852,49 +3846,49 @@
         <v>192</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U33" s="0"/>
       <c r="V33" s="0"/>
       <c r="W33" s="0"/>
       <c r="X33" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34">
@@ -3920,49 +3914,49 @@
         <v>192</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U34" s="0"/>
       <c r="V34" s="0"/>
       <c r="W34" s="0"/>
       <c r="X34" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35">
@@ -3988,49 +3982,49 @@
         <v>192</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U35" s="0"/>
       <c r="V35" s="0"/>
       <c r="W35" s="0"/>
       <c r="X35" s="0" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36">
@@ -4056,49 +4050,49 @@
         <v>192</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U36" s="0"/>
       <c r="V36" s="0"/>
       <c r="W36" s="0"/>
       <c r="X36" s="0" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37">
@@ -4124,49 +4118,49 @@
         <v>192</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U37" s="0"/>
       <c r="V37" s="0"/>
       <c r="W37" s="0"/>
       <c r="X37" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38">
@@ -4192,49 +4186,49 @@
         <v>192</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U38" s="0"/>
       <c r="V38" s="0"/>
       <c r="W38" s="0"/>
       <c r="X38" s="0" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39">
@@ -4260,49 +4254,49 @@
         <v>192</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U39" s="0"/>
       <c r="V39" s="0"/>
       <c r="W39" s="0"/>
       <c r="X39" s="0" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40">
@@ -4328,49 +4322,49 @@
         <v>192</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U40" s="0"/>
       <c r="V40" s="0"/>
       <c r="W40" s="0"/>
       <c r="X40" s="0" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41">
@@ -4396,49 +4390,49 @@
         <v>192</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U41" s="0"/>
       <c r="V41" s="0"/>
       <c r="W41" s="0"/>
       <c r="X41" s="0" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42">
@@ -4464,49 +4458,49 @@
         <v>192</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U42" s="0"/>
       <c r="V42" s="0"/>
       <c r="W42" s="0"/>
       <c r="X42" s="0" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43">
@@ -4532,49 +4526,49 @@
         <v>192</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U43" s="0"/>
       <c r="V43" s="0"/>
       <c r="W43" s="0"/>
       <c r="X43" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44">
@@ -4600,49 +4594,49 @@
         <v>192</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U44" s="0"/>
       <c r="V44" s="0"/>
       <c r="W44" s="0"/>
       <c r="X44" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45">
@@ -4668,49 +4662,49 @@
         <v>192</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U45" s="0"/>
       <c r="V45" s="0"/>
       <c r="W45" s="0"/>
       <c r="X45" s="0" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46">
@@ -4736,49 +4730,49 @@
         <v>192</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U46" s="0"/>
       <c r="V46" s="0"/>
       <c r="W46" s="0"/>
       <c r="X46" s="0" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47">
@@ -4804,49 +4798,49 @@
         <v>192</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U47" s="0"/>
       <c r="V47" s="0"/>
       <c r="W47" s="0"/>
       <c r="X47" s="0" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48">
@@ -4872,49 +4866,49 @@
         <v>192</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U48" s="0"/>
       <c r="V48" s="0"/>
       <c r="W48" s="0"/>
       <c r="X48" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49">
@@ -4940,49 +4934,49 @@
         <v>192</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U49" s="0"/>
       <c r="V49" s="0"/>
       <c r="W49" s="0"/>
       <c r="X49" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50">
@@ -5008,49 +5002,49 @@
         <v>192</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U50" s="0"/>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
       <c r="X50" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51">
@@ -5076,49 +5070,49 @@
         <v>192</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U51" s="0"/>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
       <c r="X51" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52">
@@ -5144,49 +5138,49 @@
         <v>192</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T52" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U52" s="0"/>
       <c r="V52" s="0"/>
       <c r="W52" s="0"/>
       <c r="X52" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53">
@@ -5212,49 +5206,49 @@
         <v>192</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T53" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U53" s="0"/>
       <c r="V53" s="0"/>
       <c r="W53" s="0"/>
       <c r="X53" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
@@ -5280,49 +5274,49 @@
         <v>192</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T54" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
       <c r="X54" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55">
@@ -5348,49 +5342,49 @@
         <v>192</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0"/>
       <c r="W55" s="0"/>
       <c r="X55" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56">
@@ -5416,49 +5410,49 @@
         <v>192</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U56" s="0"/>
       <c r="V56" s="0"/>
       <c r="W56" s="0"/>
       <c r="X56" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57">
@@ -5484,49 +5478,49 @@
         <v>192</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
       <c r="W57" s="0"/>
       <c r="X57" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58">
@@ -5552,49 +5546,49 @@
         <v>192</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="T58" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U58" s="0"/>
       <c r="V58" s="0"/>
       <c r="W58" s="0"/>
       <c r="X58" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59">
@@ -5620,49 +5614,49 @@
         <v>192</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0"/>
       <c r="W59" s="0"/>
       <c r="X59" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
@@ -5688,49 +5682,49 @@
         <v>192</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0"/>
       <c r="W60" s="0"/>
       <c r="X60" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61">
@@ -5756,49 +5750,49 @@
         <v>192</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U61" s="0"/>
       <c r="V61" s="0"/>
       <c r="W61" s="0"/>
       <c r="X61" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62">
@@ -5824,49 +5818,49 @@
         <v>192</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
       <c r="X62" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63">
@@ -5892,49 +5886,49 @@
         <v>192</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U63" s="0"/>
       <c r="V63" s="0"/>
       <c r="W63" s="0"/>
       <c r="X63" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64">
@@ -5960,49 +5954,49 @@
         <v>192</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0"/>
       <c r="W64" s="0"/>
       <c r="X64" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65">
@@ -6028,49 +6022,49 @@
         <v>192</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U65" s="0"/>
       <c r="V65" s="0"/>
       <c r="W65" s="0"/>
       <c r="X65" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66">
@@ -6096,49 +6090,49 @@
         <v>192</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U66" s="0"/>
       <c r="V66" s="0"/>
       <c r="W66" s="0"/>
       <c r="X66" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67">
@@ -6164,49 +6158,49 @@
         <v>192</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T67" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U67" s="0"/>
       <c r="V67" s="0"/>
       <c r="W67" s="0"/>
       <c r="X67" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68">
@@ -6232,49 +6226,49 @@
         <v>192</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U68" s="0"/>
       <c r="V68" s="0"/>
       <c r="W68" s="0"/>
       <c r="X68" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69">
@@ -6300,49 +6294,49 @@
         <v>192</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U69" s="0"/>
       <c r="V69" s="0"/>
       <c r="W69" s="0"/>
       <c r="X69" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="70">
@@ -6368,49 +6362,49 @@
         <v>192</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U70" s="0"/>
       <c r="V70" s="0"/>
       <c r="W70" s="0"/>
       <c r="X70" s="0" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="71">
@@ -6436,49 +6430,49 @@
         <v>192</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="S71" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T71" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U71" s="0"/>
       <c r="V71" s="0"/>
       <c r="W71" s="0"/>
       <c r="X71" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
